--- a/01_Data_raw/Ant_hitchhiking_2017_2022_Chinese.xlsx
+++ b/01_Data_raw/Ant_hitchhiking_2017_2022_Chinese.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18525" windowHeight="7020"/>
   </bookViews>
   <sheets>
     <sheet name="台灣" sheetId="1" r:id="rId1"/>
@@ -467,13 +467,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="22">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -482,163 +476,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -647,192 +497,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -840,319 +510,45 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1414,1416 +810,1488 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="12.1666666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.3333333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.6666666666667" customWidth="1"/>
-    <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="40.1666666666667" customWidth="1"/>
-    <col min="8" max="8" width="29.5" customWidth="1"/>
-    <col min="9" max="9" width="14.5" customWidth="1"/>
-    <col min="10" max="10" width="15.1666666666667" customWidth="1"/>
-    <col min="11" max="11" width="6" customWidth="1"/>
-    <col min="12" max="12" width="82.3333333333333" customWidth="1"/>
-    <col min="13" max="13" width="16.8333333333333" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="19.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22" customWidth="1"/>
+    <col min="6" max="6" width="13.375" customWidth="1"/>
+    <col min="7" max="7" width="44.375" customWidth="1"/>
+    <col min="8" max="8" width="42.375" customWidth="1"/>
+    <col min="9" max="9" width="21.875" customWidth="1"/>
+    <col min="10" max="10" width="25.25" customWidth="1"/>
+    <col min="11" max="11" width="12.625" customWidth="1"/>
+    <col min="12" max="12" width="107" customWidth="1"/>
+    <col min="13" max="13" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" s="8" customFormat="1" ht="18">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2">
+    <row r="2" spans="1:12" ht="18">
+      <c r="A2" s="2">
         <v>2017</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="3">
         <v>42960</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" t="s">
+      <c r="H2" s="2"/>
+      <c r="I2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="K2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
-      <c r="A3">
+    <row r="3" spans="1:12" ht="18">
+      <c r="A3" s="2">
         <v>2019</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="3">
         <v>43733</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="F3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I3" t="s">
+      <c r="H3" s="2"/>
+      <c r="I3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
-      <c r="A4">
+    <row r="4" spans="1:12" ht="18">
+      <c r="A4" s="2">
         <v>2020</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="3">
         <v>43929</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I4" t="s">
+      <c r="H4" s="2"/>
+      <c r="I4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="K4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
-      <c r="A5">
+    <row r="5" spans="1:12" ht="18">
+      <c r="A5" s="2">
         <v>2020</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="3">
         <v>44079</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" t="s">
+      <c r="K5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
-      <c r="A6">
+    <row r="6" spans="1:12" ht="18">
+      <c r="A6" s="2">
         <v>2020</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="3">
         <v>44080</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="F6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I6" t="s">
+      <c r="H6" s="2"/>
+      <c r="I6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="K6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7">
+      <c r="K6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" ht="18">
+      <c r="A7" s="2">
         <v>2020</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="3">
         <v>44178</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="F7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
-      <c r="A8">
+    <row r="8" spans="1:12" ht="18">
+      <c r="A8" s="2">
         <v>2020</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="E8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="I8" t="s">
+      <c r="H8" s="2"/>
+      <c r="I8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="K8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9">
+      <c r="K8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" ht="18">
+      <c r="A9" s="2">
         <v>2020</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="E9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I9" t="s">
+      <c r="H9" s="2"/>
+      <c r="I9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10">
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" ht="18">
+      <c r="A10" s="2">
         <v>2020</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="E10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="I10" t="s">
+      <c r="H10" s="2"/>
+      <c r="I10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="K10" t="s">
-        <v>18</v>
-      </c>
-      <c r="L10" t="s">
+      <c r="K10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
-      <c r="A11">
+    <row r="11" spans="1:12" ht="18">
+      <c r="A11" s="2">
         <v>2021</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="3">
         <v>44287</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="I11" t="s">
+      <c r="H11" s="2"/>
+      <c r="I11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="K11" t="s">
-        <v>18</v>
-      </c>
-      <c r="L11" t="s">
+      <c r="K11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
-      <c r="A12">
+    <row r="12" spans="1:12" ht="18">
+      <c r="A12" s="2">
         <v>2021</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="3">
         <v>44319</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="I12" t="s">
+      <c r="H12" s="2"/>
+      <c r="I12" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="K12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13">
+      <c r="K12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" ht="18">
+      <c r="A13" s="2">
         <v>2021</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="3">
         <v>44327</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="E13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="I13" t="s">
+      <c r="H13" s="2"/>
+      <c r="I13" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="K13" t="s">
-        <v>18</v>
-      </c>
-      <c r="L13" t="s">
+      <c r="K13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
-      <c r="A14">
+    <row r="14" spans="1:12" ht="18">
+      <c r="A14" s="2">
         <v>2021</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="3">
         <v>44341</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="E14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="I14" t="s">
+      <c r="H14" s="2"/>
+      <c r="I14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="K14" t="s">
-        <v>18</v>
-      </c>
-      <c r="L14" t="s">
+      <c r="K14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
-      <c r="A15">
+    <row r="15" spans="1:12" ht="18">
+      <c r="A15" s="2">
         <v>2021</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="3">
         <v>44355</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="E15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="I15" t="s">
+      <c r="H15" s="2"/>
+      <c r="I15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="K15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16">
+      <c r="K15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" ht="18">
+      <c r="A16" s="2">
         <v>2021</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="3">
         <v>44363</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F16" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="E16" s="2"/>
+      <c r="F16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="I16" t="s">
+      <c r="H16" s="2"/>
+      <c r="I16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K16" t="s">
-        <v>18</v>
-      </c>
-      <c r="L16" t="s">
+      <c r="K16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
-      <c r="A17">
+    <row r="17" spans="1:12" ht="18">
+      <c r="A17" s="2">
         <v>2021</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="3">
         <v>44376</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="F17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="I17" t="s">
+      <c r="H17" s="2"/>
+      <c r="I17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="K17" t="s">
-        <v>18</v>
-      </c>
-      <c r="L17" t="s">
+      <c r="K17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
-      <c r="A18">
+    <row r="18" spans="1:12" ht="18">
+      <c r="A18" s="2">
         <v>2021</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="3">
         <v>44381</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="E18" s="2"/>
+      <c r="F18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K18" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" t="s">
+      <c r="K18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
-      <c r="A19">
+    <row r="19" spans="1:12" ht="18">
+      <c r="A19" s="2">
         <v>2021</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="3">
         <v>44402</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E19" s="3">
-        <v>0.695833333333333</v>
-      </c>
-      <c r="F19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="E19" s="5">
+        <v>0.69583333333333297</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J19" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="K19" t="s">
-        <v>18</v>
-      </c>
-      <c r="L19" t="s">
+      <c r="K19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L19" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
-      <c r="A20">
+    <row r="20" spans="1:12" ht="18">
+      <c r="A20" s="2">
         <v>2021</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="3">
         <v>44403</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="E20" s="2"/>
+      <c r="F20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="I20" t="s">
+      <c r="H20" s="2"/>
+      <c r="I20" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J20" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="K20" t="s">
-        <v>18</v>
-      </c>
-      <c r="L20" t="s">
+      <c r="K20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L20" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
-      <c r="A21">
+    <row r="21" spans="1:12" ht="18">
+      <c r="A21" s="2">
         <v>2021</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="3">
         <v>44408</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="E21" s="2"/>
+      <c r="F21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="I21" t="s">
+      <c r="H21" s="2"/>
+      <c r="I21" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J21" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="K21" t="s">
-        <v>18</v>
-      </c>
-      <c r="L21" t="s">
+      <c r="K21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L21" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
-      <c r="A22">
+    <row r="22" spans="1:12" ht="18">
+      <c r="A22" s="2">
         <v>2021</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="3">
         <v>44409</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="E22" s="2"/>
+      <c r="F22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="I22" t="s">
+      <c r="H22" s="2"/>
+      <c r="I22" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J22" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="K22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23">
+      <c r="K22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="1:12" ht="18">
+      <c r="A23" s="2">
         <v>2021</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="3">
         <v>44410</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" t="s">
+      <c r="E23" s="2"/>
+      <c r="F23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="I23" t="s">
+      <c r="H23" s="2"/>
+      <c r="I23" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J23" t="s">
+      <c r="J23" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="K23" t="s">
-        <v>18</v>
-      </c>
-      <c r="L23" t="s">
+      <c r="K23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L23" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
-      <c r="A24">
+    <row r="24" spans="1:12" ht="18">
+      <c r="A24" s="2">
         <v>2021</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="3">
         <v>44412</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="E24" s="2"/>
+      <c r="F24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="I24" t="s">
+      <c r="H24" s="2"/>
+      <c r="I24" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="J24" t="s">
+      <c r="J24" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="K24" t="s">
+      <c r="K24" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25">
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="1:12" ht="18">
+      <c r="A25" s="2">
         <v>2021</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="3">
         <v>44417</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" t="s">
+      <c r="E25" s="2"/>
+      <c r="F25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="I25" t="s">
+      <c r="H25" s="2"/>
+      <c r="I25" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="J25" t="s">
+      <c r="J25" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="K25" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26">
+      <c r="K25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="1:12" ht="18">
+      <c r="A26" s="2">
         <v>2021</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="3">
         <v>44426</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" t="s">
+      <c r="E26" s="2"/>
+      <c r="F26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="I26" t="s">
+      <c r="H26" s="2"/>
+      <c r="I26" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J26" t="s">
+      <c r="J26" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="K26" t="s">
-        <v>18</v>
-      </c>
-      <c r="L26" t="s">
+      <c r="K26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L26" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
-      <c r="A27">
+    <row r="27" spans="1:12" ht="18">
+      <c r="A27" s="2">
         <v>2021</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="3">
         <v>44449</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" t="s">
+      <c r="E27" s="2"/>
+      <c r="F27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="I27" t="s">
+      <c r="H27" s="2"/>
+      <c r="I27" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="J27" t="s">
+      <c r="J27" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="K27" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28">
+      <c r="K27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L27" s="2"/>
+    </row>
+    <row r="28" spans="1:12" ht="18">
+      <c r="A28" s="2">
         <v>2021</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="3">
         <v>44452</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E28" s="3">
-        <v>0.680555555555555</v>
-      </c>
-      <c r="F28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" t="s">
+      <c r="E28" s="5">
+        <v>0.68055555555555503</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I28" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="J28" t="s">
+      <c r="J28" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="K28" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29">
+      <c r="K28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L28" s="2"/>
+    </row>
+    <row r="29" spans="1:12" ht="18">
+      <c r="A29" s="2">
         <v>2021</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="3">
         <v>44481</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F29" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" t="s">
+      <c r="E29" s="2"/>
+      <c r="F29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="I29" t="s">
+      <c r="H29" s="2"/>
+      <c r="I29" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J29" t="s">
+      <c r="J29" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="K29" t="s">
-        <v>18</v>
-      </c>
-      <c r="L29" t="s">
+      <c r="K29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L29" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
-      <c r="A30">
+    <row r="30" spans="1:12" ht="18">
+      <c r="A30" s="2">
         <v>2021</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="3">
         <v>44500</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F30" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" s="1" t="s">
+      <c r="E30" s="2"/>
+      <c r="F30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="I30" t="s">
+      <c r="H30" s="2"/>
+      <c r="I30" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J30" t="s">
+      <c r="J30" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="K30" t="s">
-        <v>18</v>
-      </c>
-      <c r="L30" t="s">
+      <c r="K30" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L30" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
-      <c r="A31">
+    <row r="31" spans="1:12" ht="18">
+      <c r="A31" s="2">
         <v>2021</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="3">
         <v>44501</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" s="1" t="s">
+      <c r="E31" s="2"/>
+      <c r="F31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="I31" t="s">
+      <c r="H31" s="2"/>
+      <c r="I31" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="J31" t="s">
+      <c r="J31" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="K31" t="s">
+      <c r="K31" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L31" t="s">
+      <c r="L31" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
-      <c r="A32">
+    <row r="32" spans="1:12" ht="18">
+      <c r="A32" s="2">
         <v>2022</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="3">
         <v>44650</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" t="s">
+      <c r="E32" s="2"/>
+      <c r="F32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="I32" t="s">
+      <c r="H32" s="2"/>
+      <c r="I32" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J32" t="s">
+      <c r="J32" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="K32" t="s">
-        <v>18</v>
-      </c>
-      <c r="L32" t="s">
+      <c r="K32" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L32" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
-      <c r="A33">
+    <row r="33" spans="1:12" ht="18">
+      <c r="A33" s="2">
         <v>2022</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="3">
         <v>44660</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" s="1" t="s">
+      <c r="E33" s="2"/>
+      <c r="F33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="I33" t="s">
+      <c r="H33" s="2"/>
+      <c r="I33" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="J33" t="s">
+      <c r="J33" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="K33" t="s">
-        <v>18</v>
-      </c>
-      <c r="L33" t="s">
+      <c r="K33" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L33" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
-      <c r="A34">
+    <row r="34" spans="1:12" ht="18">
+      <c r="A34" s="2">
         <v>2022</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="3">
         <v>44668</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F34" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" t="s">
+      <c r="E34" s="2"/>
+      <c r="F34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="I34" t="s">
+      <c r="H34" s="2"/>
+      <c r="I34" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="J34" t="s">
+      <c r="J34" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="K34" t="s">
+      <c r="K34" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L34" t="s">
+      <c r="L34" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
-      <c r="A35">
+    <row r="35" spans="1:12" ht="18">
+      <c r="A35" s="2">
         <v>2022</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="3">
         <v>44704</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F35" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" t="s">
+      <c r="E35" s="2"/>
+      <c r="F35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="I35" t="s">
+      <c r="H35" s="2"/>
+      <c r="I35" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J35" t="s">
+      <c r="J35" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="K35" t="s">
-        <v>18</v>
-      </c>
-      <c r="L35" t="s">
+      <c r="K35" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L35" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
-      <c r="A36">
+    <row r="36" spans="1:12" ht="18">
+      <c r="A36" s="2">
         <v>2022</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="3">
         <v>44710</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" t="s">
+      <c r="E36" s="2"/>
+      <c r="F36" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G36" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="I36" t="s">
+      <c r="H36" s="2"/>
+      <c r="I36" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J36" t="s">
+      <c r="J36" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="K36" t="s">
-        <v>18</v>
-      </c>
-      <c r="L36" t="s">
+      <c r="K36" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L36" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
-      <c r="A37">
+    <row r="37" spans="1:12" ht="18">
+      <c r="A37" s="2">
         <v>2022</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="3">
         <v>44717</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F37" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" s="1" t="s">
+      <c r="F37" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="H37" s="1" t="s">
+      <c r="H37" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="I37" t="s">
+      <c r="I37" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J37" t="s">
+      <c r="J37" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="K37" t="s">
-        <v>18</v>
-      </c>
-      <c r="L37" t="s">
+      <c r="K37" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L37" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
-      <c r="A38">
+    <row r="38" spans="1:12" ht="18">
+      <c r="A38" s="2">
         <v>2022</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="3">
         <v>44728</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" t="s">
+      <c r="F38" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="I38" t="s">
+      <c r="H38" s="2"/>
+      <c r="I38" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J38" t="s">
+      <c r="J38" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="K38" t="s">
-        <v>18</v>
-      </c>
-      <c r="L38" t="s">
+      <c r="K38" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L38" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
-      <c r="A39">
+    <row r="39" spans="1:12" ht="18">
+      <c r="A39" s="2">
         <v>2022</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="3">
         <v>44728</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F39" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" t="s">
+      <c r="E39" s="2"/>
+      <c r="F39" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="I39" t="s">
+      <c r="H39" s="2"/>
+      <c r="I39" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J39" t="s">
+      <c r="J39" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="K39" t="s">
-        <v>18</v>
-      </c>
-      <c r="L39" t="s">
+      <c r="K39" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L39" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
-      <c r="A40">
+    <row r="40" spans="1:12" ht="18">
+      <c r="A40" s="2">
         <v>2022</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="3">
         <v>44777</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="F40" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" t="s">
+      <c r="F40" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H40" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="I40" t="s">
+      <c r="I40" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J40" t="s">
+      <c r="J40" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="K40" t="s">
-        <v>18</v>
-      </c>
-      <c r="L40" t="s">
+      <c r="K40" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L40" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
-      <c r="A41">
+    <row r="41" spans="1:12" ht="18">
+      <c r="A41" s="2">
         <v>2022</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="3">
         <v>44787</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="F41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" t="s">
+      <c r="F41" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H41" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="I41" t="s">
+      <c r="I41" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J41" t="s">
+      <c r="J41" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="K41" t="s">
-        <v>18</v>
-      </c>
-      <c r="L41" t="s">
+      <c r="K41" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L41" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
-      <c r="A42">
+    <row r="42" spans="1:12" ht="18">
+      <c r="A42" s="2">
         <v>2022</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="3">
         <v>44787</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F42" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" t="s">
+      <c r="E42" s="2"/>
+      <c r="F42" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="I42" t="s">
+      <c r="H42" s="2"/>
+      <c r="I42" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J42" t="s">
+      <c r="J42" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="K42" t="s">
-        <v>18</v>
-      </c>
-      <c r="L42" t="s">
+      <c r="K42" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L42" s="2" t="s">
         <v>147</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:L42">
-    <sortState ref="A1:L42">
-      <sortCondition ref="A1:A37"/>
-    </sortState>
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/01_Data_raw/Ant_hitchhiking_2017_2022_Chinese.xlsx
+++ b/01_Data_raw/Ant_hitchhiking_2017_2022_Chinese.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11012"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Feng-Chuan/Documents/GitHub/2023_Ant_Hitchhiking_on_Vehicles_in_Taiwan/01_Data_raw/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE0494F-F9DC-CA4C-879A-30724389D7B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18525" windowHeight="7020"/>
+    <workbookView xWindow="20" yWindow="500" windowWidth="19180" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="台灣" sheetId="1" r:id="rId1"/>
@@ -424,54 +430,55 @@
     <t>watermelon2 (玉)</t>
   </si>
   <si>
+    <t>15：00~18：00</t>
+  </si>
+  <si>
+    <t>花蓮富里鄉</t>
+  </si>
+  <si>
+    <t>23.100578, 121.269271</t>
+  </si>
+  <si>
+    <t>黑車，水泥路，有樹遮蔭但沒有接觸到植物</t>
+  </si>
+  <si>
+    <t>2小時</t>
+  </si>
+  <si>
+    <t>南投惠蓀關刀山林道</t>
+  </si>
+  <si>
+    <t>24.0866315,121.0265923</t>
+  </si>
+  <si>
+    <t>蔡經甫</t>
+  </si>
+  <si>
+    <t>白車，回科博館，有草，短短的，不高。</t>
+  </si>
+  <si>
+    <t>台中市北屯區昌平路二段</t>
+  </si>
+  <si>
+    <t>葉人瑋</t>
+  </si>
+  <si>
+    <t>藍色，停路邊和地下室</t>
+  </si>
+  <si>
     <t>回台中市沙鹿區福成路</t>
-  </si>
-  <si>
-    <t>15：00~18：00</t>
-  </si>
-  <si>
-    <t>花蓮富里鄉</t>
-  </si>
-  <si>
-    <t>23.100578, 121.269271</t>
-  </si>
-  <si>
-    <t>黑車，水泥路，有樹遮蔭但沒有接觸到植物</t>
-  </si>
-  <si>
-    <t>2小時</t>
-  </si>
-  <si>
-    <t>南投惠蓀關刀山林道</t>
-  </si>
-  <si>
-    <t>24.0866315,121.0265923</t>
-  </si>
-  <si>
-    <t>蔡經甫</t>
-  </si>
-  <si>
-    <t>白車，回科博館，有草，短短的，不高。</t>
-  </si>
-  <si>
-    <t>台中市北屯區昌平路二段</t>
-  </si>
-  <si>
-    <t>葉人瑋</t>
-  </si>
-  <si>
-    <t>藍色，停路邊和地下室</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
@@ -486,6 +493,13 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -553,6 +567,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -815,28 +832,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="E3" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33:J42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="2" max="2" width="19.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.1640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
-    <col min="6" max="6" width="13.375" customWidth="1"/>
-    <col min="7" max="7" width="44.375" customWidth="1"/>
-    <col min="8" max="8" width="42.375" customWidth="1"/>
-    <col min="9" max="9" width="21.875" customWidth="1"/>
-    <col min="10" max="10" width="25.25" customWidth="1"/>
-    <col min="11" max="11" width="12.625" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="44.33203125" customWidth="1"/>
+    <col min="8" max="8" width="42.33203125" customWidth="1"/>
+    <col min="9" max="9" width="21.83203125" customWidth="1"/>
+    <col min="10" max="10" width="25.1640625" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" customWidth="1"/>
     <col min="12" max="12" width="107" customWidth="1"/>
-    <col min="13" max="13" width="16.875" customWidth="1"/>
+    <col min="13" max="13" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="8" customFormat="1" ht="18">
@@ -2174,7 +2191,7 @@
         <v>18</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="18">
@@ -2191,16 +2208,16 @@
         <v>38</v>
       </c>
       <c r="E40" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="F40" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" s="2" t="s">
+      <c r="H40" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>16</v>
@@ -2212,7 +2229,7 @@
         <v>18</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="18">
@@ -2229,28 +2246,28 @@
         <v>38</v>
       </c>
       <c r="E41" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="F41" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" s="2" t="s">
+      <c r="H41" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J41" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L41" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="K41" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L41" s="2" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="18">
@@ -2271,26 +2288,25 @@
         <v>14</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H42" s="2"/>
       <c r="I42" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J42" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L42" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="K42" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L42" s="2" t="s">
-        <v>147</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L42">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:L42" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
